--- a/Proyectos/2016/1/P1439 - RNCFAC, Sabina Santibañez_AG/Planeación/Plan_de_proyecto.xlsx
+++ b/Proyectos/2016/1/P1439 - RNCFAC, Sabina Santibañez_AG/Planeación/Plan_de_proyecto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" r:id="rId1"/>
@@ -652,15 +652,6 @@
     <t>francisco.llamas@sos-soft.com</t>
   </si>
   <si>
-    <t>Roles Equipo &lt;Irmalu Hinojosa&gt;</t>
-  </si>
-  <si>
-    <t>Irmalu Hinojosa</t>
-  </si>
-  <si>
-    <t>forevercom11@gmail.com</t>
-  </si>
-  <si>
     <t>Alma García</t>
   </si>
   <si>
@@ -680,6 +671,15 @@
   </si>
   <si>
     <t>https://contpaqi911.bitrix24.com/crm/deal/show/14882/</t>
+  </si>
+  <si>
+    <t>Sabina Santibañez</t>
+  </si>
+  <si>
+    <t>Roles Equipo &lt;Sabina Santibañez&gt;</t>
+  </si>
+  <si>
+    <t>recepcionfacturas.cnpr@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -2348,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="145" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C3" s="145"/>
     </row>
@@ -2382,7 +2382,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="144" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C7" s="144"/>
     </row>
@@ -2400,7 +2400,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="146" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C9" s="146"/>
     </row>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="26" spans="1:4" ht="53.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="151" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B26" s="151"/>
       <c r="C26" s="10"/>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="28" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="148" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B28" s="149"/>
     </row>
@@ -4736,11 +4736,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -4750,6 +4745,11 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
@@ -4763,8 +4763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -4942,13 +4942,13 @@
         <v>65</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="25">
-        <v>528183316566</v>
-      </c>
-      <c r="D13" s="142" t="s">
-        <v>165</v>
+        <v>170</v>
+      </c>
+      <c r="C13" s="143">
+        <v>2878716481</v>
+      </c>
+      <c r="D13" s="143" t="s">
+        <v>172</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>66</v>
@@ -5010,10 +5010,11 @@
     <hyperlink ref="D5" r:id="rId5"/>
     <hyperlink ref="C6" r:id="rId6" display="callto:3316367365"/>
     <hyperlink ref="D6" r:id="rId7" display="mailto:francisco.llamas@sos-soft.com"/>
-    <hyperlink ref="D13" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId8" tooltip="2878716481" display="callto:2878716481"/>
+    <hyperlink ref="D13" r:id="rId9" tooltip="recepcionfacturas.cnpr@hotmail.com" display="mailto:recepcionfacturas.cnpr@hotmail.com?cc=info%40sos-soft.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" firstPageNumber="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
+  <pageSetup paperSize="0" firstPageNumber="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -9317,10 +9318,10 @@
         <v>79</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>80</v>
@@ -9354,7 +9355,7 @@
         <v>58</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>85</v>
@@ -9664,7 +9665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
